--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Gpr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Gpr1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H2">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I2">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J2">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.617852666666667</v>
+        <v>2.001552666666667</v>
       </c>
       <c r="N2">
-        <v>4.853558</v>
+        <v>6.004658</v>
       </c>
       <c r="O2">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455128</v>
       </c>
       <c r="P2">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455129</v>
       </c>
       <c r="Q2">
-        <v>0.594447066029111</v>
+        <v>9.080073695623334</v>
       </c>
       <c r="R2">
-        <v>5.350023594261999</v>
+        <v>81.72066326061001</v>
       </c>
       <c r="S2">
-        <v>0.002265977838024516</v>
+        <v>0.02956710425147718</v>
       </c>
       <c r="T2">
-        <v>0.002265977838024516</v>
+        <v>0.02956710425147719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H3">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I3">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J3">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.120709666666666</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N3">
-        <v>6.362128999999999</v>
+        <v>6.362129</v>
       </c>
       <c r="O3">
-        <v>0.4309546949943073</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="P3">
-        <v>0.4309546949943074</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="Q3">
-        <v>0.7792116459201109</v>
+        <v>9.620631213478335</v>
       </c>
       <c r="R3">
-        <v>7.012904813280999</v>
+        <v>86.58568092130501</v>
       </c>
       <c r="S3">
-        <v>0.002970283515032287</v>
+        <v>0.03132730147234802</v>
       </c>
       <c r="T3">
-        <v>0.002970283515032287</v>
+        <v>0.03132730147234802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H4">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I4">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J4">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09275366666666668</v>
+        <v>0.2886933333333334</v>
       </c>
       <c r="N4">
-        <v>0.278261</v>
+        <v>0.8660800000000001</v>
       </c>
       <c r="O4">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="P4">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="Q4">
-        <v>0.03408044882544444</v>
+        <v>1.309661637066667</v>
       </c>
       <c r="R4">
-        <v>0.306724039429</v>
+        <v>11.7869547336</v>
       </c>
       <c r="S4">
-        <v>0.000129911553377242</v>
+        <v>0.004264602188853947</v>
       </c>
       <c r="T4">
-        <v>0.000129911553377242</v>
+        <v>0.004264602188853947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H5">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I5">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J5">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.86865</v>
+        <v>0.5159813333333334</v>
       </c>
       <c r="N5">
-        <v>2.60595</v>
+        <v>1.547944</v>
       </c>
       <c r="O5">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="P5">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="Q5">
-        <v>0.31916777995</v>
+        <v>2.340757058386667</v>
       </c>
       <c r="R5">
-        <v>2.87251001955</v>
+        <v>21.06681352548</v>
       </c>
       <c r="S5">
-        <v>0.001216638380956813</v>
+        <v>0.007622119631700689</v>
       </c>
       <c r="T5">
-        <v>0.001216638380956813</v>
+        <v>0.007622119631700691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H6">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I6">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J6">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1019216666666667</v>
+        <v>0.1925083333333333</v>
       </c>
       <c r="N6">
-        <v>0.305765</v>
+        <v>0.577525</v>
       </c>
       <c r="O6">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="P6">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="Q6">
-        <v>0.03744904400944444</v>
+        <v>0.8733169417916666</v>
       </c>
       <c r="R6">
-        <v>0.3370413960849999</v>
+        <v>7.859852476125</v>
       </c>
       <c r="S6">
-        <v>0.000142752330072818</v>
+        <v>0.00284374928311227</v>
       </c>
       <c r="T6">
-        <v>0.0001427523300728179</v>
+        <v>0.002843749283112271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H7">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I7">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J7">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1190696666666667</v>
+        <v>0.2810713333333333</v>
       </c>
       <c r="N7">
-        <v>0.357209</v>
+        <v>0.843214</v>
       </c>
       <c r="O7">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="P7">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="Q7">
-        <v>0.04374972793344444</v>
+        <v>1.275084319736667</v>
       </c>
       <c r="R7">
-        <v>0.3937475514009999</v>
+        <v>11.47575887763</v>
       </c>
       <c r="S7">
-        <v>0.0001667699608293338</v>
+        <v>0.004152009364114506</v>
       </c>
       <c r="T7">
-        <v>0.0001667699608293337</v>
+        <v>0.004152009364114507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J8">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.617852666666667</v>
+        <v>2.001552666666667</v>
       </c>
       <c r="N8">
-        <v>4.853558</v>
+        <v>6.004658</v>
       </c>
       <c r="O8">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455128</v>
       </c>
       <c r="P8">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455129</v>
       </c>
       <c r="Q8">
-        <v>71.5820913111131</v>
+        <v>88.5589452620131</v>
       </c>
       <c r="R8">
-        <v>644.2388218000178</v>
+        <v>797.0305073581179</v>
       </c>
       <c r="S8">
-        <v>0.2728643840299251</v>
+        <v>0.2883711800956975</v>
       </c>
       <c r="T8">
-        <v>0.272864384029925</v>
+        <v>0.2883711800956976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J9">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.120709666666666</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N9">
-        <v>6.362128999999999</v>
+        <v>6.362129</v>
       </c>
       <c r="O9">
-        <v>0.4309546949943073</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="P9">
-        <v>0.4309546949943074</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="Q9">
-        <v>93.83106146276209</v>
+        <v>93.83106146276212</v>
       </c>
       <c r="R9">
-        <v>844.4795531648589</v>
+        <v>844.479553164859</v>
       </c>
       <c r="S9">
-        <v>0.3576754229997712</v>
+        <v>0.3055385748282518</v>
       </c>
       <c r="T9">
-        <v>0.3576754229997711</v>
+        <v>0.3055385748282518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J10">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09275366666666668</v>
+        <v>0.2886933333333334</v>
       </c>
       <c r="N10">
-        <v>0.278261</v>
+        <v>0.8660800000000001</v>
       </c>
       <c r="O10">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="P10">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="Q10">
-        <v>4.103897452203444</v>
+        <v>12.77327223507556</v>
       </c>
       <c r="R10">
-        <v>36.935077069831</v>
+        <v>114.95945011568</v>
       </c>
       <c r="S10">
-        <v>0.01564368167940942</v>
+        <v>0.04159312847747228</v>
       </c>
       <c r="T10">
-        <v>0.01564368167940941</v>
+        <v>0.04159312847747229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>132.735371</v>
       </c>
       <c r="I11">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J11">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.86865</v>
+        <v>0.5159813333333334</v>
       </c>
       <c r="N11">
-        <v>2.60595</v>
+        <v>1.547944</v>
       </c>
       <c r="O11">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="P11">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="Q11">
-        <v>38.43352667305</v>
+        <v>22.82965790302489</v>
       </c>
       <c r="R11">
-        <v>345.90174005745</v>
+        <v>205.466921127224</v>
       </c>
       <c r="S11">
-        <v>0.1465050879298822</v>
+        <v>0.07433936087651528</v>
       </c>
       <c r="T11">
-        <v>0.1465050879298822</v>
+        <v>0.0743393608765153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>132.735371</v>
       </c>
       <c r="I12">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J12">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1019216666666667</v>
+        <v>0.1925083333333333</v>
       </c>
       <c r="N12">
-        <v>0.305765</v>
+        <v>0.577525</v>
       </c>
       <c r="O12">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="P12">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="Q12">
-        <v>4.509536745979444</v>
+        <v>8.517555015197221</v>
       </c>
       <c r="R12">
-        <v>40.585830713815</v>
+        <v>76.65799513677499</v>
       </c>
       <c r="S12">
-        <v>0.01718994156099712</v>
+        <v>0.02773539571858509</v>
       </c>
       <c r="T12">
-        <v>0.01718994156099711</v>
+        <v>0.0277353957185851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>132.735371</v>
       </c>
       <c r="I13">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J13">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1190696666666667</v>
+        <v>0.2810713333333333</v>
       </c>
       <c r="N13">
-        <v>0.357209</v>
+        <v>0.843214</v>
       </c>
       <c r="O13">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="P13">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="Q13">
-        <v>5.268252126615445</v>
+        <v>12.43603590248822</v>
       </c>
       <c r="R13">
-        <v>47.41426913953899</v>
+        <v>111.924323122394</v>
       </c>
       <c r="S13">
-        <v>0.02008209518768407</v>
+        <v>0.04049499842509158</v>
       </c>
       <c r="T13">
-        <v>0.02008209518768407</v>
+        <v>0.04049499842509158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H14">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I14">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J14">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.617852666666667</v>
+        <v>2.001552666666667</v>
       </c>
       <c r="N14">
-        <v>4.853558</v>
+        <v>6.004658</v>
       </c>
       <c r="O14">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455128</v>
       </c>
       <c r="P14">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455129</v>
       </c>
       <c r="Q14">
-        <v>0.6206007329542222</v>
+        <v>15.21063269427778</v>
       </c>
       <c r="R14">
-        <v>5.585406596588</v>
+        <v>136.8956942485</v>
       </c>
       <c r="S14">
-        <v>0.002365673223908505</v>
+        <v>0.04952981414891089</v>
       </c>
       <c r="T14">
-        <v>0.002365673223908504</v>
+        <v>0.0495298141489109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H15">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I15">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J15">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.120709666666666</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N15">
-        <v>6.362128999999999</v>
+        <v>6.362129</v>
       </c>
       <c r="O15">
-        <v>0.4309546949943073</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="P15">
-        <v>0.4309546949943074</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="Q15">
-        <v>0.8134943314882221</v>
+        <v>16.11615638602778</v>
       </c>
       <c r="R15">
-        <v>7.321448983394</v>
+        <v>145.04540747425</v>
       </c>
       <c r="S15">
-        <v>0.003100965976372754</v>
+        <v>0.0524784370669231</v>
       </c>
       <c r="T15">
-        <v>0.003100965976372753</v>
+        <v>0.05247843706692312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H16">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I16">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J16">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.09275366666666668</v>
+        <v>0.2886933333333334</v>
       </c>
       <c r="N16">
-        <v>0.278261</v>
+        <v>0.8660800000000001</v>
       </c>
       <c r="O16">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="P16">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="Q16">
-        <v>0.0355798736828889</v>
+        <v>2.193900928888889</v>
       </c>
       <c r="R16">
-        <v>0.3202188631460001</v>
+        <v>19.74510836</v>
       </c>
       <c r="S16">
-        <v>0.0001356272237723345</v>
+        <v>0.00714391751171986</v>
       </c>
       <c r="T16">
-        <v>0.0001356272237723345</v>
+        <v>0.007143917511719861</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H17">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I17">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J17">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.86865</v>
+        <v>0.5159813333333334</v>
       </c>
       <c r="N17">
-        <v>2.60595</v>
+        <v>1.547944</v>
       </c>
       <c r="O17">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="P17">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="Q17">
-        <v>0.3332100863</v>
+        <v>3.921157144222223</v>
       </c>
       <c r="R17">
-        <v>2.9988907767</v>
+        <v>35.290414298</v>
       </c>
       <c r="S17">
-        <v>0.001270166368228085</v>
+        <v>0.01276831730182164</v>
       </c>
       <c r="T17">
-        <v>0.001270166368228085</v>
+        <v>0.01276831730182164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H18">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I18">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J18">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1019216666666667</v>
+        <v>0.1925083333333333</v>
       </c>
       <c r="N18">
-        <v>0.305765</v>
+        <v>0.577525</v>
       </c>
       <c r="O18">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="P18">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="Q18">
-        <v>0.0390966756988889</v>
+        <v>1.462951036805555</v>
       </c>
       <c r="R18">
-        <v>0.35187008129</v>
+        <v>13.16655933125</v>
       </c>
       <c r="S18">
-        <v>0.0001490329513541167</v>
+        <v>0.004763752726025322</v>
       </c>
       <c r="T18">
-        <v>0.0001490329513541167</v>
+        <v>0.004763752726025324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H19">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I19">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J19">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1190696666666667</v>
+        <v>0.2810713333333333</v>
       </c>
       <c r="N19">
-        <v>0.357209</v>
+        <v>0.843214</v>
       </c>
       <c r="O19">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="P19">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="Q19">
-        <v>0.04567456847488889</v>
+        <v>2.135978175055556</v>
       </c>
       <c r="R19">
-        <v>0.411071116274</v>
+        <v>19.2238035755</v>
       </c>
       <c r="S19">
-        <v>0.0001741072768964815</v>
+        <v>0.006955305815545157</v>
       </c>
       <c r="T19">
-        <v>0.0001741072768964815</v>
+        <v>0.006955305815545158</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H20">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I20">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J20">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.617852666666667</v>
+        <v>2.001552666666667</v>
       </c>
       <c r="N20">
-        <v>4.853558</v>
+        <v>6.004658</v>
       </c>
       <c r="O20">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455128</v>
       </c>
       <c r="P20">
-        <v>0.3287678711838726</v>
+        <v>0.3706224404455129</v>
       </c>
       <c r="Q20">
-        <v>13.450437168174</v>
+        <v>0.9687001174815555</v>
       </c>
       <c r="R20">
-        <v>121.053934513566</v>
+        <v>8.718301057334001</v>
       </c>
       <c r="S20">
-        <v>0.05127183609201452</v>
+        <v>0.003154341949427221</v>
       </c>
       <c r="T20">
-        <v>0.05127183609201451</v>
+        <v>0.003154341949427222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H21">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I21">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J21">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.120709666666666</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N21">
-        <v>6.362128999999999</v>
+        <v>6.362129</v>
       </c>
       <c r="O21">
-        <v>0.4309546949943073</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="P21">
-        <v>0.4309546949943074</v>
+        <v>0.3926864404948909</v>
       </c>
       <c r="Q21">
-        <v>17.631069077637</v>
+        <v>1.026369047118556</v>
       </c>
       <c r="R21">
-        <v>158.679621698733</v>
+        <v>9.237321424067002</v>
       </c>
       <c r="S21">
-        <v>0.06720802250313115</v>
+        <v>0.00334212712736803</v>
       </c>
       <c r="T21">
-        <v>0.06720802250313115</v>
+        <v>0.003342127127368031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H22">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I22">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J22">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.09275366666666668</v>
+        <v>0.2886933333333334</v>
       </c>
       <c r="N22">
-        <v>0.278261</v>
+        <v>0.8660800000000001</v>
       </c>
       <c r="O22">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="P22">
-        <v>0.01884870369396958</v>
+        <v>0.05345661371905774</v>
       </c>
       <c r="Q22">
-        <v>0.771131631033</v>
+        <v>0.1397201635377778</v>
       </c>
       <c r="R22">
-        <v>6.940184679297</v>
+        <v>1.25748147184</v>
       </c>
       <c r="S22">
-        <v>0.002939483237410587</v>
+        <v>0.0004549655410116494</v>
       </c>
       <c r="T22">
-        <v>0.002939483237410587</v>
+        <v>0.0004549655410116494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H23">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I23">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J23">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.86865</v>
+        <v>0.5159813333333334</v>
       </c>
       <c r="N23">
-        <v>2.60595</v>
+        <v>1.547944</v>
       </c>
       <c r="O23">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="P23">
-        <v>0.1765205306934857</v>
+        <v>0.09554295730964013</v>
       </c>
       <c r="Q23">
-        <v>7.22174675535</v>
+        <v>0.2497217218124445</v>
       </c>
       <c r="R23">
-        <v>64.99572079815</v>
+        <v>2.247495496312001</v>
       </c>
       <c r="S23">
-        <v>0.02752863801441854</v>
+        <v>0.0008131594996025039</v>
       </c>
       <c r="T23">
-        <v>0.02752863801441854</v>
+        <v>0.000813159499602504</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H24">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I24">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J24">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1019216666666667</v>
+        <v>0.1925083333333333</v>
       </c>
       <c r="N24">
-        <v>0.305765</v>
+        <v>0.577525</v>
       </c>
       <c r="O24">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="P24">
-        <v>0.02071175581553508</v>
+        <v>0.03564628075708805</v>
       </c>
       <c r="Q24">
-        <v>0.847352173545</v>
+        <v>0.0931690922861111</v>
       </c>
       <c r="R24">
-        <v>7.626169561905</v>
+        <v>0.838521830575</v>
       </c>
       <c r="S24">
-        <v>0.003230028973111029</v>
+        <v>0.000303383029365362</v>
       </c>
       <c r="T24">
-        <v>0.003230028973111029</v>
+        <v>0.0003033830293653621</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H25">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I25">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J25">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1190696666666667</v>
+        <v>0.2810713333333333</v>
       </c>
       <c r="N25">
-        <v>0.357209</v>
+        <v>0.843214</v>
       </c>
       <c r="O25">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="P25">
-        <v>0.02419644361882973</v>
+        <v>0.05204526727381022</v>
       </c>
       <c r="Q25">
-        <v>0.989916512877</v>
+        <v>0.1360313111691111</v>
       </c>
       <c r="R25">
-        <v>8.909248615893</v>
+        <v>1.224281800522</v>
       </c>
       <c r="S25">
-        <v>0.003773471193419841</v>
+        <v>0.0004429536690589748</v>
       </c>
       <c r="T25">
-        <v>0.003773471193419841</v>
+        <v>0.0004429536690589748</v>
       </c>
     </row>
   </sheetData>
